--- a/src/zh/openpyxl/styles/RC.xlsx
+++ b/src/zh/openpyxl/styles/RC.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="\￥#,##0;&quot;￥-&quot;#,##0"/>
+  </numFmts>
   <fonts count="6">
     <font>
       <name val="微软雅黑"/>
@@ -99,7 +101,7 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -115,6 +117,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="distributed" vertical="bottom"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
@@ -132,6 +137,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="distributed" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -386,48 +394,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.92578125" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="13" customWidth="1" style="5" min="2" max="2"/>
-    <col width="19.27" customWidth="1" style="6" min="4" max="4"/>
+    <col width="13" customWidth="1" style="6" min="2" max="2"/>
+    <col width="19.27" customWidth="1" style="7" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.8" customFormat="1" customHeight="1" s="7">
-      <c r="A1" s="8" t="inlineStr">
+    <row r="1" ht="13.8" customFormat="1" customHeight="1" s="8">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>Hello</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" s="9">
-      <c r="B2" s="10" t="inlineStr">
+    <row r="2" ht="13.8" customHeight="1" s="10">
+      <c r="B2" s="11" t="inlineStr">
         <is>
           <t>World</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="59.7" customFormat="1" customHeight="1" s="11">
-      <c r="D4" s="12" t="inlineStr">
+    <row r="4" ht="59.7" customFormat="1" customHeight="1" s="12">
+      <c r="D4" s="13" t="inlineStr">
         <is>
           <t>Yes，No？</t>
         </is>
       </c>
     </row>
-    <row r="1048568" ht="12.8" customHeight="1" s="9"/>
-    <row r="1048569" ht="12.8" customHeight="1" s="9"/>
-    <row r="1048570" ht="12.8" customHeight="1" s="9"/>
-    <row r="1048571" ht="12.8" customHeight="1" s="9"/>
-    <row r="1048572" ht="12.8" customHeight="1" s="9"/>
-    <row r="1048573" ht="12.8" customHeight="1" s="9"/>
-    <row r="1048574" ht="12.8" customHeight="1" s="9"/>
-    <row r="1048575" ht="12.8" customHeight="1" s="9"/>
-    <row r="1048576" ht="12.8" customHeight="1" s="9"/>
+    <row r="5" ht="13.8" customHeight="1" s="10">
+      <c r="E5" s="14" t="n">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="1048568" ht="12.8" customHeight="1" s="10"/>
+    <row r="1048569" ht="12.8" customHeight="1" s="10"/>
+    <row r="1048570" ht="12.8" customHeight="1" s="10"/>
+    <row r="1048571" ht="12.8" customHeight="1" s="10"/>
+    <row r="1048572" ht="12.8" customHeight="1" s="10"/>
+    <row r="1048573" ht="12.8" customHeight="1" s="10"/>
+    <row r="1048574" ht="12.8" customHeight="1" s="10"/>
+    <row r="1048575" ht="12.8" customHeight="1" s="10"/>
+    <row r="1048576" ht="12.8" customHeight="1" s="10"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
